--- a/pred_ohlcv/54_21/2020-01-19 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 TRX ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>2232735.75923888</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2741874.243238879</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2716142.705738879</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2749289.105738879</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2749289.105738879</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2749289.105738879</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2960308.236238879</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3533563.369038879</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3478130.395038879</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3550289.085170869</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>3550322.085238879</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>4467124.673860718</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>4471473.224860718</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>4456257.292460718</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4456257.292460718</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>6950456.093460717</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>6762313.401460717</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>6538961.924960718</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6564010.357560718</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>6564010.357560718</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>6728819.914360718</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>6886224.221860718</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>7440863.653660718</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>7440863.653660718</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>7200682.084060718</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>7163549.330760718</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>7265339.722160718</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>7399372.537733939</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>7399190.625133938</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>7908557.061133938</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>13069413.90576795</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>12913784.53946795</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>12762482.48346795</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>13737570.19066795</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>12845697.40476795</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>13933228.82006795</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>14416105.62255849</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>14418569.34985849</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>13397761.65915849</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>13505971.90405848</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>13845828.35945848</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>13845828.35945848</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>14113998.17995848</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>14099227.65325848</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>13930488.57945848</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>13911635.52455848</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>13939356.02291388</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>13358915.24871388</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>13375255.24871388</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>13339435.13501388</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>13342385.13501388</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>13364353.75859552</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>13340500.15849552</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>13490952.58269553</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>13490952.58269553</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>13429295.88559552</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>13560522.56403182</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>13481021.84663182</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>13545222.85021145</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>13527376.29921144</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>13397687.16191144</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>13471974.22601144</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>13119211.7768055</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>13119211.7768055</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>13119211.7768055</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>13099211.7768055</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>13409354.1211055</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>13483346.3451055</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>13824710.2026055</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>13791166.3524055</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>13788633.4924055</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>13774143.8866055</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>13757075.4536055</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>13757075.4536055</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>12585450.8910055</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>11451181.10746632</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>11307093.14416631</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>11262850.04416632</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>11294273.70836632</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>11294113.70836632</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>11286318.95196632</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>11274663.57196631</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>11255465.12436632</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>11255465.12436632</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>11162904.87723858</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>11154606.43373859</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>11221793.40053859</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>11281704.49463858</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>11281704.49463858</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>11166689.68123858</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>11106883.28293858</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>11106883.28293858</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>4597258.674457195</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>5523907.250857195</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>6680226.702992503</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>6686917.279580423</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>6674254.016680422</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>6674254.016680422</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>6579055.446180422</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>6550860.399980422</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>6556465.948080422</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>6556465.948080422</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>6555438.459280422</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>6555438.459280422</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>6557464.359880422</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>6552394.359880422</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>6420949.103280422</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>6361010.805961773</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>6666149.733966853</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>6666000.456466854</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>6671998.079966853</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>6633148.577666854</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>6657624.407666854</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>6651794.407666854</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>6674674.907366853</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>6733383.915266853</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>6733383.915266853</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>5705410.194266854</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>5972376.735566854</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>5972376.735566854</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>5972376.735566854</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>5972027.861266853</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>5982154.815581573</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>5982154.815581573</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>5982154.815581573</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>5982154.815581573</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>6000233.474381573</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>6000233.474381573</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>5998793.378881574</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>6497757.051781573</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>5411267.457043676</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>5411267.457043676</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>5468584.116897315</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>5005745.803236094</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>5002636.983236094</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>4997982.363236094</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>5112737.886537102</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>5243737.886537102</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>4708264.788437102</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>4375118.324737102</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>4408860.037137101</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>4430730.966937101</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>4430730.966937101</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>4212721.481137102</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>4163005.592765522</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>4039322.866765522</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>4235582.300865522</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>4245582.300865522</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>4245420.300865522</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>4245420.300865522</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>4344583.412465522</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>4466306.790365522</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>4471541.086265522</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>4472541.086265522</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>4460741.820765523</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>4463775.187802933</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>4416799.710211333</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>4417277.877911333</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>4417277.877911333</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>4434573.665511333</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>4449662.353011333</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 TRX ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>2232735.75923888</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2293989.576238879</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2741874.243238879</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2716142.705738879</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2749289.105738879</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2749289.105738879</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2749289.105738879</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2960308.236238879</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3533563.369038879</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3478130.395038879</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3550289.085170869</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>3550322.085238879</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>4467124.673860718</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>4471473.224860718</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>4456257.292460718</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4456257.292460718</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>6950456.093460717</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>6762313.401460717</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>6538961.924960718</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6564010.357560718</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>6564010.357560718</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>6728819.914360718</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>6886224.221860718</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>7440863.653660718</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>7440863.653660718</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>7200682.084060718</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>7163549.330760718</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>7265339.722160718</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>7399372.537733939</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>7399190.625133938</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>7908557.061133938</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>10287989.06246795</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>10285039.06246795</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>10391585.23746795</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>10574310.33486795</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>10563099.72426795</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>11558690.36596795</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>11558690.36596795</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>11908395.00456795</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>11127022.98146795</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>11084817.17746795</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>11084917.17746795</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>11084917.17746795</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>11084917.17746795</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>11134421.20936795</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>13069413.90576795</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>13069413.90576795</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>12913784.53946795</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>13004462.66026795</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>12837677.27066795</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>12762482.48346795</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>13734631.54526795</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>13937570.19066795</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>13737570.19066795</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>13711935.46066795</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>13447475.53556795</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>12845697.40476795</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>12809846.74266795</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>14033736.20616795</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>13933228.82006795</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>14214381.34695849</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>13527376.29921144</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>13397687.16191144</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>13471974.22601144</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>13119211.7768055</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>13791166.3524055</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>11335765.80046632</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>11451181.10746632</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>11307093.14416631</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>11307093.14416631</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>11262850.04416632</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>11294273.70836632</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>11294113.70836632</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>11286318.95196632</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>11274663.57196631</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>11255465.12436632</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>11257445.44713859</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>11162904.87723858</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>11154606.43373859</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>11221793.40053859</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>11279801.82733859</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>11261429.21143859</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>11292195.50383859</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>11303506.24193859</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>11281704.49463858</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>11281704.49463858</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>11166689.68123858</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>11106883.28293858</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>11106883.28293858</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>11106883.28293858</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>11224650.36613858</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>11148424.92203858</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>11123461.17183859</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>9866373.389653699</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>9697081.71444894</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>8662459.71554894</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>8459549.71564894</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>4597258.674457195</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>5523907.250857195</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>6680226.702992503</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>6686917.279580423</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>6674254.016680422</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>6674254.016680422</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>6579055.446180422</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>6550860.399980422</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>6556465.948080422</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>6556465.948080422</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>6555438.459280422</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>6555438.459280422</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>6557464.359880422</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>6552394.359880422</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>6420949.103280422</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>6361010.805961773</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>6665224.103166853</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>6666149.733966853</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>6666000.456466854</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>6671998.079966853</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>6633148.577666854</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>6657624.407666854</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>6651794.407666854</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>6674674.907366853</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>6733383.915266853</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>6733383.915266853</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>5705410.194266854</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>5972376.735566854</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>5972376.735566854</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>5972376.735566854</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>5972027.861266853</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>5982154.815581573</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>5982154.815581573</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>5982154.815581573</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>5982154.815581573</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>6000233.474381573</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>6000233.474381573</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>5998793.378881574</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>6497757.051781573</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>5411267.457043676</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>5411267.457043676</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>5468584.116897315</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>5005745.803236094</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>5002636.983236094</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>4997982.363236094</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>5112737.886537102</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>5243737.886537102</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>4708264.788437102</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>4375118.324737102</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>4408860.037137101</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>4430730.966937101</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>4430730.966937101</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>4212721.481137102</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>4163005.592765522</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>4039322.866765522</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>4235582.300865522</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>4245582.300865522</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>4245420.300865522</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>4245420.300865522</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>4344583.412465522</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>4466306.790365522</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>4471541.086265522</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>4472541.086265522</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>4460741.820765523</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>4463775.187802933</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>4416799.710211333</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>4417277.877911333</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>4417277.877911333</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>4434573.665511333</v>
       </c>
       <c r="H872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>4449662.353011333</v>
       </c>
       <c r="H873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
